--- a/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
+++ b/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahrad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Classes\Ms Software Eng\6611 Software Measurement\Project\Correlation 1,2&amp;3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Commons Collections 1&amp;3" sheetId="2" r:id="rId1"/>
+    <sheet name="Commons Collections 2&amp;3" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="214">
   <si>
     <t>GROUP</t>
   </si>
@@ -671,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8874,4 +8875,7897 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>330</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>234</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>395</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>239</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>47</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21</v>
+      </c>
+      <c r="N9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>320</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>219</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>21</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>558</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>79</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>79</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>98</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>98</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>11</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>134</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>21</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>134</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>42</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>117</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>150</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>51</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>262</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>53</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>23</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>146</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>19</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>94</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>87</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>22</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>213</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>73</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>25</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>298</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>70</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>32</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>114</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>23</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>18</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>129</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>82</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>22</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>86</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>6</v>
+      </c>
+      <c r="N51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>8</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>13</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>15</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>8</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>26</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65">
+        <v>43</v>
+      </c>
+      <c r="E65">
+        <v>31</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>11</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>6</v>
+      </c>
+      <c r="N65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>105</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>26</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>23</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>88</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74">
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <v>126</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>25</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>13</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>31</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>151</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>34</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>14</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>48</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>13</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>8</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>35</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>73</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>18</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84">
+        <v>151</v>
+      </c>
+      <c r="E84">
+        <v>1843</v>
+      </c>
+      <c r="F84">
+        <v>29</v>
+      </c>
+      <c r="G84">
+        <v>224</v>
+      </c>
+      <c r="H84">
+        <v>32</v>
+      </c>
+      <c r="I84">
+        <v>432</v>
+      </c>
+      <c r="J84">
+        <v>29</v>
+      </c>
+      <c r="K84">
+        <v>163</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>64</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>79</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>23</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>14</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>12</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86">
+        <v>36</v>
+      </c>
+      <c r="E86">
+        <v>207</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>51</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>21</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>17</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>49</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>82</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>24</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>15</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>13</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>104</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>29</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>17</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>15</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>94</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>19</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>71</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>20</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>11</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>72</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>13</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>9</v>
+      </c>
+      <c r="N92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>128</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>32</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>17</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>9</v>
+      </c>
+      <c r="N93">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>65</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>22</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>11</v>
+      </c>
+      <c r="N94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>458</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>49</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>87</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>44</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>21</v>
+      </c>
+      <c r="N95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>144</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>38</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>16</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>12</v>
+      </c>
+      <c r="N96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>75</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>16</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>11</v>
+      </c>
+      <c r="N97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>57</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>18</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>10</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>9</v>
+      </c>
+      <c r="N98">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>15</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100">
+        <v>203</v>
+      </c>
+      <c r="E100">
+        <v>296</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100">
+        <v>31</v>
+      </c>
+      <c r="H100">
+        <v>17</v>
+      </c>
+      <c r="I100">
+        <v>87</v>
+      </c>
+      <c r="J100">
+        <v>13</v>
+      </c>
+      <c r="K100">
+        <v>32</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>20</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101">
+        <v>144</v>
+      </c>
+      <c r="E101">
+        <v>1430</v>
+      </c>
+      <c r="F101">
+        <v>108</v>
+      </c>
+      <c r="G101">
+        <v>188</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+      <c r="I101">
+        <v>303</v>
+      </c>
+      <c r="J101">
+        <v>80</v>
+      </c>
+      <c r="K101">
+        <v>107</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>39</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102">
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <v>94</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>21</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>15</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>14</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103">
+        <v>144</v>
+      </c>
+      <c r="E103">
+        <v>1247</v>
+      </c>
+      <c r="F103">
+        <v>64</v>
+      </c>
+      <c r="G103">
+        <v>226</v>
+      </c>
+      <c r="H103">
+        <v>30</v>
+      </c>
+      <c r="I103">
+        <v>328</v>
+      </c>
+      <c r="J103">
+        <v>61</v>
+      </c>
+      <c r="K103">
+        <v>123</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>23</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104">
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <v>28</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>10</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>4</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105">
+        <v>37</v>
+      </c>
+      <c r="E105">
+        <v>573</v>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>63</v>
+      </c>
+      <c r="H105">
+        <v>11</v>
+      </c>
+      <c r="I105">
+        <v>121</v>
+      </c>
+      <c r="J105">
+        <v>11</v>
+      </c>
+      <c r="K105">
+        <v>44</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>16</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106">
+        <v>114</v>
+      </c>
+      <c r="E106">
+        <v>190</v>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
+        <v>15</v>
+      </c>
+      <c r="H106">
+        <v>29</v>
+      </c>
+      <c r="I106">
+        <v>50</v>
+      </c>
+      <c r="J106">
+        <v>21</v>
+      </c>
+      <c r="K106">
+        <v>30</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>28</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>60</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>19</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>9</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>7</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>92</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>24</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>17</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>16</v>
+      </c>
+      <c r="N108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109">
+        <v>24</v>
+      </c>
+      <c r="E109">
+        <v>61</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>16</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>11</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>8</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <v>327</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>39</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>86</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <v>38</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>21</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>82</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>26</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>10</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>9</v>
+      </c>
+      <c r="N111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>157</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>13</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>34</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>15</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>9</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>79</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>19</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>17</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>16</v>
+      </c>
+      <c r="N113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>49</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>14</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>11</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>10</v>
+      </c>
+      <c r="N114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>87</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>25</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>16</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>15</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>126</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>33</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>21</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>20</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>31</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+      <c r="N117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118">
+        <v>25</v>
+      </c>
+      <c r="E118">
+        <v>486</v>
+      </c>
+      <c r="F118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>68</v>
+      </c>
+      <c r="H118">
+        <v>7</v>
+      </c>
+      <c r="I118">
+        <v>119</v>
+      </c>
+      <c r="J118">
+        <v>8</v>
+      </c>
+      <c r="K118">
+        <v>56</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>25</v>
+      </c>
+      <c r="N118">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>306</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>27</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>77</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>36</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>24</v>
+      </c>
+      <c r="N119">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120">
+        <v>43</v>
+      </c>
+      <c r="E120">
+        <v>60</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>12</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>8</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>8</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>74</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>15</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>11</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>11</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>64</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>13</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>9</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>9</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123">
+        <v>54</v>
+      </c>
+      <c r="E123">
+        <v>74</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>10</v>
+      </c>
+      <c r="I123">
+        <v>15</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+      <c r="K123">
+        <v>11</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>11</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>153</v>
+      </c>
+      <c r="D124">
+        <v>36</v>
+      </c>
+      <c r="E124">
+        <v>29</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>11</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>214</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>16</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>49</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>19</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>12</v>
+      </c>
+      <c r="N125">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" t="s">
+        <v>155</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>75</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>14</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>22</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>13</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>6</v>
+      </c>
+      <c r="N127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>105</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>12</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>27</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>14</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>8</v>
+      </c>
+      <c r="N128">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>113</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>8</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>25</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>14</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>10</v>
+      </c>
+      <c r="N130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>160</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>52</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>15</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>9</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>6</v>
+      </c>
+      <c r="N131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+      <c r="C132" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>69</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>6</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>13</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>195</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>30</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>56</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>8</v>
+      </c>
+      <c r="N133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>35</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>11</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>6</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>5</v>
+      </c>
+      <c r="N134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>99</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>12</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>28</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>11</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>127</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>22</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>35</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>18</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>8</v>
+      </c>
+      <c r="N136">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>127</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>26</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>32</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>23</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>11</v>
+      </c>
+      <c r="N137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>12</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>5</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139">
+        <v>68</v>
+      </c>
+      <c r="E139">
+        <v>191</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="G139">
+        <v>30</v>
+      </c>
+      <c r="H139">
+        <v>18</v>
+      </c>
+      <c r="I139">
+        <v>58</v>
+      </c>
+      <c r="J139">
+        <v>15</v>
+      </c>
+      <c r="K139">
+        <v>24</v>
+      </c>
+      <c r="L139">
+        <v>9</v>
+      </c>
+      <c r="M139">
+        <v>12</v>
+      </c>
+      <c r="N139">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>136</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>12</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>34</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>12</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>6</v>
+      </c>
+      <c r="N140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141">
+        <v>31</v>
+      </c>
+      <c r="E141">
+        <v>361</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>39</v>
+      </c>
+      <c r="H141">
+        <v>8</v>
+      </c>
+      <c r="I141">
+        <v>94</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+      <c r="K141">
+        <v>38</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>20</v>
+      </c>
+      <c r="N141">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>259</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>32</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>44</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>20</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>56</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>6</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>12</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>8</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>6</v>
+      </c>
+      <c r="N143">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144">
+        <v>121</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>31</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>14</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>9</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="s">
+        <v>174</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C146" t="s">
+        <v>175</v>
+      </c>
+      <c r="D146">
+        <v>36</v>
+      </c>
+      <c r="E146">
+        <v>254</v>
+      </c>
+      <c r="F146">
+        <v>7</v>
+      </c>
+      <c r="G146">
+        <v>31</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
+      </c>
+      <c r="I146">
+        <v>60</v>
+      </c>
+      <c r="J146">
+        <v>7</v>
+      </c>
+      <c r="K146">
+        <v>23</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>9</v>
+      </c>
+      <c r="N146">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>112</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>8</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>23</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>14</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>10</v>
+      </c>
+      <c r="N147">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>56</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>19</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>7</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>7</v>
+      </c>
+      <c r="N148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>177</v>
+      </c>
+      <c r="C149" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>408</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>24</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>77</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>32</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>20</v>
+      </c>
+      <c r="N149">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>44</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>64</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>8</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>182</v>
+      </c>
+      <c r="C152" t="s">
+        <v>183</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>61</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>6</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>14</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>7</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153">
+        <v>8</v>
+      </c>
+      <c r="E153">
+        <v>39</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>11</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <v>9</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>9</v>
+      </c>
+      <c r="N153">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154">
+        <v>37</v>
+      </c>
+      <c r="E154">
+        <v>180</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>21</v>
+      </c>
+      <c r="H154">
+        <v>11</v>
+      </c>
+      <c r="I154">
+        <v>43</v>
+      </c>
+      <c r="J154">
+        <v>12</v>
+      </c>
+      <c r="K154">
+        <v>26</v>
+      </c>
+      <c r="L154">
+        <v>11</v>
+      </c>
+      <c r="M154">
+        <v>16</v>
+      </c>
+      <c r="N154">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>187</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>44</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>35</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>34</v>
+      </c>
+      <c r="N155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156">
+        <v>35</v>
+      </c>
+      <c r="E156">
+        <v>740</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>72</v>
+      </c>
+      <c r="H156">
+        <v>11</v>
+      </c>
+      <c r="I156">
+        <v>178</v>
+      </c>
+      <c r="J156">
+        <v>8</v>
+      </c>
+      <c r="K156">
+        <v>103</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>70</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" t="s">
+        <v>188</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>109</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>27</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>17</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>16</v>
+      </c>
+      <c r="N157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158">
+        <v>22</v>
+      </c>
+      <c r="E158">
+        <v>38</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <v>9</v>
+      </c>
+      <c r="H158">
+        <v>6</v>
+      </c>
+      <c r="I158">
+        <v>9</v>
+      </c>
+      <c r="J158">
+        <v>6</v>
+      </c>
+      <c r="K158">
+        <v>6</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" t="s">
+        <v>190</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>36</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>9</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>4</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160">
+        <v>34</v>
+      </c>
+      <c r="E160">
+        <v>1515</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160">
+        <v>253</v>
+      </c>
+      <c r="H160">
+        <v>7</v>
+      </c>
+      <c r="I160">
+        <v>357</v>
+      </c>
+      <c r="J160">
+        <v>16</v>
+      </c>
+      <c r="K160">
+        <v>192</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>73</v>
+      </c>
+      <c r="N160">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" t="s">
+        <v>192</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D162">
+        <v>43</v>
+      </c>
+      <c r="E162">
+        <v>512</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>42</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+      <c r="I162">
+        <v>113</v>
+      </c>
+      <c r="J162">
+        <v>4</v>
+      </c>
+      <c r="K162">
+        <v>61</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>40</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>182</v>
+      </c>
+      <c r="C163" t="s">
+        <v>194</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>21</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>6</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>182</v>
+      </c>
+      <c r="C164" t="s">
+        <v>195</v>
+      </c>
+      <c r="D164">
+        <v>73</v>
+      </c>
+      <c r="E164">
+        <v>1146</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>142</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+      <c r="I164">
+        <v>236</v>
+      </c>
+      <c r="J164">
+        <v>26</v>
+      </c>
+      <c r="K164">
+        <v>144</v>
+      </c>
+      <c r="L164">
+        <v>16</v>
+      </c>
+      <c r="M164">
+        <v>78</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" t="s">
+        <v>196</v>
+      </c>
+      <c r="D165">
+        <v>43</v>
+      </c>
+      <c r="E165">
+        <v>377</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>55</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <v>90</v>
+      </c>
+      <c r="J165">
+        <v>11</v>
+      </c>
+      <c r="K165">
+        <v>44</v>
+      </c>
+      <c r="L165">
+        <v>5</v>
+      </c>
+      <c r="M165">
+        <v>19</v>
+      </c>
+      <c r="N165">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
+        <v>182</v>
+      </c>
+      <c r="C166" t="s">
+        <v>197</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>22</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>6</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>6</v>
+      </c>
+      <c r="N166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" t="s">
+        <v>198</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>6</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>5</v>
+      </c>
+      <c r="N167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168" t="s">
+        <v>199</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>134</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>33</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>24</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>23</v>
+      </c>
+      <c r="N168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>200</v>
+      </c>
+      <c r="C169" t="s">
+        <v>201</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>23</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>4</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>200</v>
+      </c>
+      <c r="C170" t="s">
+        <v>202</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>33</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>9</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" t="s">
+        <v>203</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>160</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>27</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>12</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>9</v>
+      </c>
+      <c r="N171">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>204</v>
+      </c>
+      <c r="C172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>12</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>4</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173" t="s">
+        <v>206</v>
+      </c>
+      <c r="D173">
+        <v>18</v>
+      </c>
+      <c r="E173">
+        <v>115</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+      <c r="I173">
+        <v>22</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>11</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>10</v>
+      </c>
+      <c r="N173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>204</v>
+      </c>
+      <c r="C174" t="s">
+        <v>207</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>59</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>12</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>12</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>10</v>
+      </c>
+      <c r="N174">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" t="s">
+        <v>208</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>90</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>27</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>18</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>17</v>
+      </c>
+      <c r="N175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>97</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>20</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>11</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>10</v>
+      </c>
+      <c r="N176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>77</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>16</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>10</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>9</v>
+      </c>
+      <c r="N177">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>209</v>
+      </c>
+      <c r="C178" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>358</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>45</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>91</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>43</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>21</v>
+      </c>
+      <c r="N178">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>76</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>23</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>16</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>15</v>
+      </c>
+      <c r="N179">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
+++ b/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Measurement-Project\Correlation\Metric 1, 2 and 3\commons-collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Classes\Ms Software Eng\6611 Software Measurement\Project\Correlation 1,2&amp;3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Commons Collections 1&amp;3" sheetId="2" r:id="rId1"/>
     <sheet name="Commons Collections 2&amp;3" sheetId="1" r:id="rId2"/>
+    <sheet name="Spearman" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -678,7 +679,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,6 +726,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546747</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="152400"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7639,7 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S167" sqref="S167"/>
     </sheetView>
   </sheetViews>
@@ -16254,4 +16348,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
+++ b/Correlation/Metric 1, 2 and 3/commons-collections/Metric 1,2&3 _Commons Collections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Commons Collections 1&amp;3" sheetId="2" r:id="rId1"/>
@@ -680,8 +680,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -709,8 +717,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,65 +1103,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="0.140625" customWidth="1"/>
     <col min="5" max="13" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1188,10 +1205,10 @@
       <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>90</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <f>G2/(F2+G2)*100</f>
         <v>77.272727272727266</v>
       </c>
@@ -1236,10 +1253,10 @@
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>91</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <f t="shared" ref="O3:O50" si="0">G3/(F3+G3)*100</f>
         <v>90</v>
       </c>
@@ -1284,10 +1301,10 @@
       <c r="M4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>92</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
@@ -1332,10 +1349,10 @@
       <c r="M5">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>88</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
@@ -1380,10 +1397,10 @@
       <c r="M6">
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>53</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -1428,10 +1445,10 @@
       <c r="M7">
         <v>7</v>
       </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1476,10 +1493,10 @@
       <c r="M8">
         <v>21</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>74</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
@@ -1524,10 +1541,10 @@
       <c r="M9">
         <v>21</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>96</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
@@ -1572,10 +1589,10 @@
       <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1620,10 +1637,10 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>73</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1668,10 +1685,10 @@
       <c r="M12">
         <v>6</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>71</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1716,10 +1733,10 @@
       <c r="M13">
         <v>12</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>62</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>68.965517241379317</v>
       </c>
@@ -1764,10 +1781,10 @@
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>43</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>68.181818181818173</v>
       </c>
@@ -1812,10 +1829,10 @@
       <c r="M15">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>54</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <f t="shared" si="0"/>
         <v>64.285714285714292</v>
       </c>
@@ -1860,10 +1877,10 @@
       <c r="M16">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>95</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <f t="shared" si="0"/>
         <v>96.341463414634148</v>
       </c>
@@ -1908,10 +1925,10 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1956,10 +1973,10 @@
       <c r="M18">
         <v>6</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>71</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2004,10 +2021,10 @@
       <c r="M19">
         <v>7</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>70.588235294117652</v>
       </c>
@@ -2052,10 +2069,10 @@
       <c r="M20">
         <v>9</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>10</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2100,10 +2117,10 @@
       <c r="M21">
         <v>12</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>33</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2148,10 +2165,10 @@
       <c r="M22">
         <v>6</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>8</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2196,10 +2213,10 @@
       <c r="M23">
         <v>10</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>6</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -2244,10 +2261,10 @@
       <c r="M24">
         <v>9</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>42</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2292,10 +2309,10 @@
       <c r="M25">
         <v>11</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>79</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -2340,10 +2357,10 @@
       <c r="M26">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>75</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -2388,10 +2405,10 @@
       <c r="M27">
         <v>7</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>78</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2436,10 +2453,10 @@
       <c r="M28">
         <v>22</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>13</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2484,10 +2501,10 @@
       <c r="M29">
         <v>12</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2532,10 +2549,10 @@
       <c r="M30">
         <v>16</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
         <f t="shared" si="0"/>
         <v>88.888888888888886</v>
       </c>
@@ -2580,10 +2597,10 @@
       <c r="M31">
         <v>16</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>91</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -2628,10 +2645,10 @@
       <c r="M32">
         <v>17</v>
       </c>
-      <c r="N32">
-        <v>100</v>
-      </c>
-      <c r="O32">
+      <c r="N32" s="2">
+        <v>100</v>
+      </c>
+      <c r="O32" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2676,10 +2693,10 @@
       <c r="M33">
         <v>7</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>50</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2724,10 +2741,10 @@
       <c r="M34">
         <v>20</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <f t="shared" si="0"/>
         <v>70.833333333333343</v>
       </c>
@@ -2772,10 +2789,10 @@
       <c r="M35">
         <v>20</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2820,10 +2837,10 @@
       <c r="M36">
         <v>15</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>90</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2868,10 +2885,10 @@
       <c r="M37">
         <v>7</v>
       </c>
-      <c r="N37">
-        <v>100</v>
-      </c>
-      <c r="O37">
+      <c r="N37" s="2">
+        <v>100</v>
+      </c>
+      <c r="O37" s="2">
         <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
@@ -2916,10 +2933,10 @@
       <c r="M38">
         <v>4</v>
       </c>
-      <c r="N38">
-        <v>100</v>
-      </c>
-      <c r="O38">
+      <c r="N38" s="2">
+        <v>100</v>
+      </c>
+      <c r="O38" s="2">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
@@ -2964,10 +2981,10 @@
       <c r="M39">
         <v>3</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>80</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3012,10 +3029,10 @@
       <c r="M40">
         <v>6</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>88</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <f t="shared" si="0"/>
         <v>58.333333333333336</v>
       </c>
@@ -3060,10 +3077,10 @@
       <c r="M41">
         <v>3</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>80</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3108,10 +3125,10 @@
       <c r="M42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>100</v>
-      </c>
-      <c r="O42">
+      <c r="N42" s="2">
+        <v>100</v>
+      </c>
+      <c r="O42" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3156,10 +3173,10 @@
       <c r="M43">
         <v>4</v>
       </c>
-      <c r="N43">
-        <v>100</v>
-      </c>
-      <c r="O43">
+      <c r="N43" s="2">
+        <v>100</v>
+      </c>
+      <c r="O43" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3204,10 +3221,10 @@
       <c r="M44">
         <v>3</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>63</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3252,10 +3269,10 @@
       <c r="M45">
         <v>4</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="2">
         <v>63</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3300,10 +3317,10 @@
       <c r="M46">
         <v>3</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <v>75</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3348,10 +3365,10 @@
       <c r="M47">
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>90</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3396,10 +3413,10 @@
       <c r="M48">
         <v>3</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="2">
         <v>50</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3444,10 +3461,10 @@
       <c r="M49">
         <v>6</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <v>33</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="2">
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
@@ -3492,10 +3509,10 @@
       <c r="M50">
         <v>5</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>88</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -3540,10 +3557,10 @@
       <c r="M51">
         <v>3</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>80</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <f t="shared" ref="O51:O99" si="1">G51/(F51+G51)*100</f>
         <v>100</v>
       </c>
@@ -3588,10 +3605,10 @@
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52">
-        <v>100</v>
-      </c>
-      <c r="O52">
+      <c r="N52" s="2">
+        <v>100</v>
+      </c>
+      <c r="O52" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3636,10 +3653,10 @@
       <c r="M53">
         <v>3</v>
       </c>
-      <c r="N53">
-        <v>100</v>
-      </c>
-      <c r="O53">
+      <c r="N53" s="2">
+        <v>100</v>
+      </c>
+      <c r="O53" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3684,10 +3701,10 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>63</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -3732,10 +3749,10 @@
       <c r="M55">
         <v>5</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <v>88</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3780,10 +3797,10 @@
       <c r="M56">
         <v>5</v>
       </c>
-      <c r="N56">
-        <v>100</v>
-      </c>
-      <c r="O56">
+      <c r="N56" s="2">
+        <v>100</v>
+      </c>
+      <c r="O56" s="2">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
@@ -3828,10 +3845,10 @@
       <c r="M57">
         <v>5</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="2">
         <v>72</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="2">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
@@ -3876,10 +3893,10 @@
       <c r="M58">
         <v>4</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>63</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3924,10 +3941,10 @@
       <c r="M59">
         <v>4</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>93</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3972,10 +3989,10 @@
       <c r="M60">
         <v>3</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <v>80</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4020,10 +4037,10 @@
       <c r="M61">
         <v>4</v>
       </c>
-      <c r="N61">
-        <v>100</v>
-      </c>
-      <c r="O61">
+      <c r="N61" s="2">
+        <v>100</v>
+      </c>
+      <c r="O61" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4068,10 +4085,10 @@
       <c r="M62">
         <v>64</v>
       </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2">
         <f t="shared" si="1"/>
         <v>88.537549407114625</v>
       </c>
@@ -4116,10 +4133,10 @@
       <c r="M63">
         <v>12</v>
       </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4164,10 +4181,10 @@
       <c r="M64">
         <v>17</v>
       </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
@@ -4212,10 +4229,10 @@
       <c r="M65">
         <v>13</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4260,10 +4277,10 @@
       <c r="M66">
         <v>15</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4308,10 +4325,10 @@
       <c r="M67">
         <v>10</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4356,10 +4373,10 @@
       <c r="M68">
         <v>10</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <v>50</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="2">
         <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
@@ -4404,10 +4421,10 @@
       <c r="M69">
         <v>9</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <v>89</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4452,10 +4469,10 @@
       <c r="M70">
         <v>11</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="2">
         <v>58</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4500,10 +4517,10 @@
       <c r="M71">
         <v>21</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="2">
         <v>94</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="2">
         <f t="shared" si="1"/>
         <v>94.230769230769226</v>
       </c>
@@ -4548,10 +4565,10 @@
       <c r="M72">
         <v>12</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="2">
         <v>96</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="2">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
@@ -4596,10 +4613,10 @@
       <c r="M73">
         <v>9</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <v>67</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4644,10 +4661,10 @@
       <c r="M74">
         <v>20</v>
       </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
@@ -4692,10 +4709,10 @@
       <c r="M75">
         <v>39</v>
       </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
         <f t="shared" si="1"/>
         <v>63.513513513513509</v>
       </c>
@@ -4740,10 +4757,10 @@
       <c r="M76">
         <v>14</v>
       </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -4788,10 +4805,10 @@
       <c r="M77">
         <v>23</v>
       </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
         <f t="shared" si="1"/>
         <v>77.931034482758619</v>
       </c>
@@ -4836,10 +4853,10 @@
       <c r="M78">
         <v>16</v>
       </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
@@ -4884,10 +4901,10 @@
       <c r="M79">
         <v>28</v>
       </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
         <f t="shared" si="1"/>
         <v>42.857142857142854</v>
       </c>
@@ -4932,10 +4949,10 @@
       <c r="M80">
         <v>7</v>
       </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4980,10 +4997,10 @@
       <c r="M81">
         <v>16</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="2">
         <v>80</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5028,10 +5045,10 @@
       <c r="M82">
         <v>8</v>
       </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5076,10 +5093,10 @@
       <c r="M83">
         <v>21</v>
       </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
         <f t="shared" si="1"/>
         <v>88.63636363636364</v>
       </c>
@@ -5124,10 +5141,10 @@
       <c r="M84">
         <v>9</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="2">
         <v>13</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5172,10 +5189,10 @@
       <c r="M85">
         <v>9</v>
       </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5220,10 +5237,10 @@
       <c r="M86">
         <v>16</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="2">
         <v>20</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5268,10 +5285,10 @@
       <c r="M87">
         <v>10</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="2">
         <v>75</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5316,10 +5333,10 @@
       <c r="M88">
         <v>15</v>
       </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5364,10 +5381,10 @@
       <c r="M89">
         <v>20</v>
       </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5412,10 +5429,10 @@
       <c r="M90">
         <v>5</v>
       </c>
-      <c r="N90">
-        <v>100</v>
-      </c>
-      <c r="O90">
+      <c r="N90" s="2">
+        <v>100</v>
+      </c>
+      <c r="O90" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5460,10 +5477,10 @@
       <c r="M91">
         <v>25</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="2">
         <v>93</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="2">
         <f t="shared" si="1"/>
         <v>91.891891891891902</v>
       </c>
@@ -5508,10 +5525,10 @@
       <c r="M92">
         <v>24</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="2">
         <v>93</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -5556,10 +5573,10 @@
       <c r="M93">
         <v>8</v>
       </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5604,10 +5621,10 @@
       <c r="M94">
         <v>11</v>
       </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5652,10 +5669,10 @@
       <c r="M95">
         <v>4</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="2">
         <v>40</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5700,10 +5717,10 @@
       <c r="M96">
         <v>12</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="2">
         <v>61</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="2">
         <f t="shared" si="1"/>
         <v>88.888888888888886</v>
       </c>
@@ -5748,10 +5765,10 @@
       <c r="M97">
         <v>6</v>
       </c>
-      <c r="N97">
-        <v>100</v>
-      </c>
-      <c r="O97">
+      <c r="N97" s="2">
+        <v>100</v>
+      </c>
+      <c r="O97" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5796,10 +5813,10 @@
       <c r="M98">
         <v>8</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="2">
         <v>88</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5844,10 +5861,10 @@
       <c r="M99">
         <v>10</v>
       </c>
-      <c r="N99">
-        <v>100</v>
-      </c>
-      <c r="O99">
+      <c r="N99" s="2">
+        <v>100</v>
+      </c>
+      <c r="O99" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5892,10 +5909,10 @@
       <c r="M100">
         <v>6</v>
       </c>
-      <c r="N100">
-        <v>100</v>
-      </c>
-      <c r="O100">
+      <c r="N100" s="2">
+        <v>100</v>
+      </c>
+      <c r="O100" s="2">
         <f t="shared" ref="O100:O138" si="2">G100/(F100+G100)*100</f>
         <v>100</v>
       </c>
@@ -5940,10 +5957,10 @@
       <c r="M101">
         <v>5</v>
       </c>
-      <c r="N101">
-        <v>100</v>
-      </c>
-      <c r="O101">
+      <c r="N101" s="2">
+        <v>100</v>
+      </c>
+      <c r="O101" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -5988,10 +6005,10 @@
       <c r="M102">
         <v>8</v>
       </c>
-      <c r="N102">
-        <v>100</v>
-      </c>
-      <c r="O102">
+      <c r="N102" s="2">
+        <v>100</v>
+      </c>
+      <c r="O102" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6036,10 +6053,10 @@
       <c r="M103">
         <v>5</v>
       </c>
-      <c r="N103">
-        <v>100</v>
-      </c>
-      <c r="O103">
+      <c r="N103" s="2">
+        <v>100</v>
+      </c>
+      <c r="O103" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6084,10 +6101,10 @@
       <c r="M104">
         <v>5</v>
       </c>
-      <c r="N104">
-        <v>100</v>
-      </c>
-      <c r="O104">
+      <c r="N104" s="2">
+        <v>100</v>
+      </c>
+      <c r="O104" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6132,10 +6149,10 @@
       <c r="M105">
         <v>8</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="2">
         <v>86</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="2">
         <f t="shared" si="2"/>
         <v>91.666666666666657</v>
       </c>
@@ -6180,10 +6197,10 @@
       <c r="M106">
         <v>11</v>
       </c>
-      <c r="N106">
-        <v>100</v>
-      </c>
-      <c r="O106">
+      <c r="N106" s="2">
+        <v>100</v>
+      </c>
+      <c r="O106" s="2">
         <f t="shared" si="2"/>
         <v>92.857142857142861</v>
       </c>
@@ -6228,10 +6245,10 @@
       <c r="M107">
         <v>12</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="2">
         <v>88</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="2">
         <f t="shared" si="2"/>
         <v>83.333333333333343</v>
       </c>
@@ -6276,10 +6293,10 @@
       <c r="M108">
         <v>6</v>
       </c>
-      <c r="N108">
-        <v>100</v>
-      </c>
-      <c r="O108">
+      <c r="N108" s="2">
+        <v>100</v>
+      </c>
+      <c r="O108" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6324,10 +6341,10 @@
       <c r="M109">
         <v>20</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="2">
         <v>84</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="2">
         <f t="shared" si="2"/>
         <v>92.857142857142861</v>
       </c>
@@ -6372,10 +6389,10 @@
       <c r="M110">
         <v>4</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="2">
         <v>90</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6420,10 +6437,10 @@
       <c r="M111">
         <v>6</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="2">
         <v>89</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -6468,10 +6485,10 @@
       <c r="M112">
         <v>0</v>
       </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6516,10 +6533,10 @@
       <c r="M113">
         <v>9</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="2">
         <v>92</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="2">
         <f t="shared" si="2"/>
         <v>81.578947368421055</v>
       </c>
@@ -6564,10 +6581,10 @@
       <c r="M114">
         <v>10</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="2">
         <v>94</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6612,10 +6629,10 @@
       <c r="M115">
         <v>20</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="2">
         <v>79</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6660,10 +6677,10 @@
       <c r="M116">
         <v>3</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="2">
         <v>83</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6708,10 +6725,10 @@
       <c r="M117">
         <v>4</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="2">
         <v>89</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6756,10 +6773,10 @@
       <c r="M118">
         <v>16</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="2">
         <v>74</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="2">
         <f t="shared" si="2"/>
         <v>95.454545454545453</v>
       </c>
@@ -6804,10 +6821,10 @@
       <c r="M119">
         <v>34</v>
       </c>
-      <c r="N119">
-        <v>100</v>
-      </c>
-      <c r="O119">
+      <c r="N119" s="2">
+        <v>100</v>
+      </c>
+      <c r="O119" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6852,10 +6869,10 @@
       <c r="M120">
         <v>70</v>
       </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
         <f t="shared" si="2"/>
         <v>87.804878048780495</v>
       </c>
@@ -6900,10 +6917,10 @@
       <c r="M121">
         <v>16</v>
       </c>
-      <c r="N121">
-        <v>100</v>
-      </c>
-      <c r="O121">
+      <c r="N121" s="2">
+        <v>100</v>
+      </c>
+      <c r="O121" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -6948,10 +6965,10 @@
       <c r="M122">
         <v>3</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="2">
         <v>53</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="2">
         <f t="shared" si="2"/>
         <v>56.25</v>
       </c>
@@ -6996,10 +7013,10 @@
       <c r="M123">
         <v>2</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="2">
         <v>86</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="2">
         <f t="shared" si="2"/>
         <v>83.333333333333343</v>
       </c>
@@ -7044,10 +7061,10 @@
       <c r="M124">
         <v>73</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="2">
         <v>91</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="2">
         <f t="shared" si="2"/>
         <v>93.703703703703695</v>
       </c>
@@ -7092,10 +7109,10 @@
       <c r="M125">
         <v>40</v>
       </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7140,10 +7157,10 @@
       <c r="M126">
         <v>78</v>
       </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-      <c r="O126">
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
         <f t="shared" si="2"/>
         <v>93.421052631578945</v>
       </c>
@@ -7188,10 +7205,10 @@
       <c r="M127">
         <v>19</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="2">
         <v>85</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="2">
         <f t="shared" si="2"/>
         <v>88.709677419354833</v>
       </c>
@@ -7236,10 +7253,10 @@
       <c r="M128">
         <v>23</v>
       </c>
-      <c r="N128">
-        <v>100</v>
-      </c>
-      <c r="O128">
+      <c r="N128" s="2">
+        <v>100</v>
+      </c>
+      <c r="O128" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7284,10 +7301,10 @@
       <c r="M129">
         <v>3</v>
       </c>
-      <c r="N129">
-        <v>100</v>
-      </c>
-      <c r="O129">
+      <c r="N129" s="2">
+        <v>100</v>
+      </c>
+      <c r="O129" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7332,10 +7349,10 @@
       <c r="M130">
         <v>2</v>
       </c>
-      <c r="N130">
-        <v>100</v>
-      </c>
-      <c r="O130">
+      <c r="N130" s="2">
+        <v>100</v>
+      </c>
+      <c r="O130" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7380,10 +7397,10 @@
       <c r="M131">
         <v>9</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="2">
         <v>80</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7428,10 +7445,10 @@
       <c r="M132">
         <v>10</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="2">
         <v>25</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7476,10 +7493,10 @@
       <c r="M133">
         <v>10</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="2">
         <v>21</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7524,10 +7541,10 @@
       <c r="M134">
         <v>17</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="2">
         <v>20</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7572,10 +7589,10 @@
       <c r="M135">
         <v>10</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="2">
         <v>9</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7620,10 +7637,10 @@
       <c r="M136">
         <v>9</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="2">
         <v>93</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -7668,10 +7685,10 @@
       <c r="M137">
         <v>21</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="2">
         <v>97</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="2">
         <f t="shared" si="2"/>
         <v>97.826086956521735</v>
       </c>
@@ -7716,10 +7733,10 @@
       <c r="M138">
         <v>15</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="2">
         <v>63</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7733,15 +7750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S167" sqref="S167"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="0.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
@@ -7750,54 +7767,54 @@
     <col min="11" max="11" width="21.7109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7841,10 +7858,10 @@
       <c r="M2">
         <v>7</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>90</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <f>I2/(H2+I2)*100</f>
         <v>95.454545454545453</v>
       </c>
@@ -7889,10 +7906,10 @@
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>91</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <f t="shared" ref="O3:O66" si="0">I3/(H3+I3)*100</f>
         <v>98.507462686567166</v>
       </c>
@@ -7937,10 +7954,10 @@
       <c r="M4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>92</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -7985,10 +8002,10 @@
       <c r="M5">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>88</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
         <v>97.014925373134332</v>
       </c>
@@ -8033,10 +8050,10 @@
       <c r="M6">
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>53</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <f t="shared" si="0"/>
         <v>78.571428571428569</v>
       </c>
@@ -8081,10 +8098,10 @@
       <c r="M7">
         <v>7</v>
       </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8129,10 +8146,10 @@
       <c r="M8">
         <v>21</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>74</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <f t="shared" si="0"/>
         <v>89.285714285714292</v>
       </c>
@@ -8177,10 +8194,10 @@
       <c r="M9">
         <v>21</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>96</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8225,10 +8242,10 @@
       <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8273,10 +8290,10 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>73</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -8321,10 +8338,10 @@
       <c r="M12">
         <v>6</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>71</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8369,10 +8386,10 @@
       <c r="M13">
         <v>12</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>62</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <f t="shared" si="0"/>
         <v>94.73684210526315</v>
       </c>
@@ -8417,10 +8434,10 @@
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>43</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <f t="shared" si="0"/>
         <v>70.370370370370367</v>
       </c>
@@ -8465,10 +8482,10 @@
       <c r="M15">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>54</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <f t="shared" si="0"/>
         <v>75.324675324675326</v>
       </c>
@@ -8513,10 +8530,10 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="2">
+        <v>100</v>
+      </c>
+      <c r="O16" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8561,10 +8578,10 @@
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>100</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8609,10 +8626,10 @@
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="2">
+        <v>100</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8657,10 +8674,10 @@
       <c r="M19">
         <v>2</v>
       </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
+      <c r="N19" s="2">
+        <v>100</v>
+      </c>
+      <c r="O19" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8705,10 +8722,10 @@
       <c r="M20">
         <v>6</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>95</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
@@ -8753,10 +8770,10 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8801,10 +8818,10 @@
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22">
+      <c r="N22" s="2">
+        <v>100</v>
+      </c>
+      <c r="O22" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8849,10 +8866,10 @@
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="N23">
-        <v>100</v>
-      </c>
-      <c r="O23">
+      <c r="N23" s="2">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8897,10 +8914,10 @@
       <c r="M24">
         <v>6</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>71</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -8945,10 +8962,10 @@
       <c r="M25">
         <v>7</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -8993,10 +9010,10 @@
       <c r="M26">
         <v>9</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>10</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="2">
         <f t="shared" si="0"/>
         <v>90.476190476190482</v>
       </c>
@@ -9041,10 +9058,10 @@
       <c r="M27">
         <v>12</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>33</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <f t="shared" si="0"/>
         <v>86.956521739130437</v>
       </c>
@@ -9089,10 +9106,10 @@
       <c r="M28">
         <v>2</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>20</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -9137,10 +9154,10 @@
       <c r="M29">
         <v>6</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>8</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <f t="shared" si="0"/>
         <v>92.857142857142861</v>
       </c>
@@ -9185,10 +9202,10 @@
       <c r="M30">
         <v>10</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
         <v>6</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9233,10 +9250,10 @@
       <c r="M31">
         <v>9</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>42</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <f t="shared" si="0"/>
         <v>86.956521739130437</v>
       </c>
@@ -9281,10 +9298,10 @@
       <c r="M32">
         <v>11</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <v>79</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="2">
         <f t="shared" si="0"/>
         <v>95.454545454545453</v>
       </c>
@@ -9329,10 +9346,10 @@
       <c r="M33">
         <v>11</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>75</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="2">
         <f t="shared" si="0"/>
         <v>95.454545454545453</v>
       </c>
@@ -9377,10 +9394,10 @@
       <c r="M34">
         <v>4</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <v>50</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9425,10 +9442,10 @@
       <c r="M35">
         <v>1</v>
       </c>
-      <c r="N35">
-        <v>100</v>
-      </c>
-      <c r="O35">
+      <c r="N35" s="2">
+        <v>100</v>
+      </c>
+      <c r="O35" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9473,10 +9490,10 @@
       <c r="M36">
         <v>7</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>78</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9521,10 +9538,10 @@
       <c r="M37">
         <v>7</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>67</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9569,10 +9586,10 @@
       <c r="M38">
         <v>22</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>13</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <f t="shared" si="0"/>
         <v>82.35294117647058</v>
       </c>
@@ -9617,10 +9634,10 @@
       <c r="M39">
         <v>12</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
         <f t="shared" si="0"/>
         <v>92.72727272727272</v>
       </c>
@@ -9665,10 +9682,10 @@
       <c r="M40">
         <v>16</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
         <f t="shared" si="0"/>
         <v>98.148148148148152</v>
       </c>
@@ -9713,10 +9730,10 @@
       <c r="M41">
         <v>16</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>91</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9761,10 +9778,10 @@
       <c r="M42">
         <v>23</v>
       </c>
-      <c r="N42">
-        <v>100</v>
-      </c>
-      <c r="O42">
+      <c r="N42" s="2">
+        <v>100</v>
+      </c>
+      <c r="O42" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9809,10 +9826,10 @@
       <c r="M43">
         <v>17</v>
       </c>
-      <c r="N43">
-        <v>100</v>
-      </c>
-      <c r="O43">
+      <c r="N43" s="2">
+        <v>100</v>
+      </c>
+      <c r="O43" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9857,10 +9874,10 @@
       <c r="M44">
         <v>7</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>50</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -9905,10 +9922,10 @@
       <c r="M45">
         <v>20</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
@@ -9953,10 +9970,10 @@
       <c r="M46">
         <v>20</v>
       </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
         <f t="shared" si="0"/>
         <v>95.890410958904098</v>
       </c>
@@ -10001,10 +10018,10 @@
       <c r="M47">
         <v>15</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>90</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10049,10 +10066,10 @@
       <c r="M48">
         <v>7</v>
       </c>
-      <c r="N48">
-        <v>100</v>
-      </c>
-      <c r="O48">
+      <c r="N48" s="2">
+        <v>100</v>
+      </c>
+      <c r="O48" s="2">
         <f t="shared" si="0"/>
         <v>94.117647058823522</v>
       </c>
@@ -10097,10 +10114,10 @@
       <c r="M49">
         <v>4</v>
       </c>
-      <c r="N49">
-        <v>100</v>
-      </c>
-      <c r="O49">
+      <c r="N49" s="2">
+        <v>100</v>
+      </c>
+      <c r="O49" s="2">
         <f t="shared" si="0"/>
         <v>95.652173913043484</v>
       </c>
@@ -10145,10 +10162,10 @@
       <c r="M50">
         <v>3</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>80</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -10193,10 +10210,10 @@
       <c r="M51">
         <v>6</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>88</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="2">
         <f t="shared" si="0"/>
         <v>70.370370370370367</v>
       </c>
@@ -10241,10 +10258,10 @@
       <c r="M52">
         <v>3</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <v>80</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -10289,10 +10306,10 @@
       <c r="M53">
         <v>4</v>
       </c>
-      <c r="N53">
-        <v>100</v>
-      </c>
-      <c r="O53">
+      <c r="N53" s="2">
+        <v>100</v>
+      </c>
+      <c r="O53" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10337,10 +10354,10 @@
       <c r="M54">
         <v>3</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>67</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="2">
         <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
@@ -10385,10 +10402,10 @@
       <c r="M55">
         <v>4</v>
       </c>
-      <c r="N55">
-        <v>100</v>
-      </c>
-      <c r="O55">
+      <c r="N55" s="2">
+        <v>100</v>
+      </c>
+      <c r="O55" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10433,10 +10450,10 @@
       <c r="M56">
         <v>4</v>
       </c>
-      <c r="N56">
-        <v>100</v>
-      </c>
-      <c r="O56">
+      <c r="N56" s="2">
+        <v>100</v>
+      </c>
+      <c r="O56" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10481,10 +10498,10 @@
       <c r="M57">
         <v>3</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="2">
         <v>63</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10529,10 +10546,10 @@
       <c r="M58">
         <v>3</v>
       </c>
-      <c r="N58">
-        <v>100</v>
-      </c>
-      <c r="O58">
+      <c r="N58" s="2">
+        <v>100</v>
+      </c>
+      <c r="O58" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10577,10 +10594,10 @@
       <c r="M59">
         <v>4</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>63</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="2">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
@@ -10625,10 +10642,10 @@
       <c r="M60">
         <v>2</v>
       </c>
-      <c r="N60">
-        <v>100</v>
-      </c>
-      <c r="O60">
+      <c r="N60" s="2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10673,10 +10690,10 @@
       <c r="M61">
         <v>3</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>75</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -10721,10 +10738,10 @@
       <c r="M62">
         <v>4</v>
       </c>
-      <c r="N62">
-        <v>100</v>
-      </c>
-      <c r="O62">
+      <c r="N62" s="2">
+        <v>100</v>
+      </c>
+      <c r="O62" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -10769,10 +10786,10 @@
       <c r="M63">
         <v>5</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <v>90</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="2">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
@@ -10817,10 +10834,10 @@
       <c r="M64">
         <v>3</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <v>50</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="2">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -10865,10 +10882,10 @@
       <c r="M65">
         <v>6</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <v>33</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="2">
         <f t="shared" si="0"/>
         <v>55.000000000000007</v>
       </c>
@@ -10913,10 +10930,10 @@
       <c r="M66">
         <v>5</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <v>88</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="2">
         <f t="shared" si="0"/>
         <v>78.787878787878782</v>
       </c>
@@ -10961,10 +10978,10 @@
       <c r="M67">
         <v>3</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <v>80</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="2">
         <f t="shared" ref="O67:O130" si="1">I67/(H67+I67)*100</f>
         <v>87.5</v>
       </c>
@@ -11009,10 +11026,10 @@
       <c r="M68">
         <v>1</v>
       </c>
-      <c r="N68">
-        <v>100</v>
-      </c>
-      <c r="O68">
+      <c r="N68" s="2">
+        <v>100</v>
+      </c>
+      <c r="O68" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11057,10 +11074,10 @@
       <c r="M69">
         <v>4</v>
       </c>
-      <c r="N69">
-        <v>100</v>
-      </c>
-      <c r="O69">
+      <c r="N69" s="2">
+        <v>100</v>
+      </c>
+      <c r="O69" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11105,10 +11122,10 @@
       <c r="M70">
         <v>3</v>
       </c>
-      <c r="N70">
-        <v>100</v>
-      </c>
-      <c r="O70">
+      <c r="N70" s="2">
+        <v>100</v>
+      </c>
+      <c r="O70" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11153,10 +11170,10 @@
       <c r="M71">
         <v>4</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="2">
         <v>63</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -11201,10 +11218,10 @@
       <c r="M72">
         <v>5</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="2">
         <v>88</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="2">
         <f t="shared" si="1"/>
         <v>95.652173913043484</v>
       </c>
@@ -11249,10 +11266,10 @@
       <c r="M73">
         <v>3</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="2">
         <v>50</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="2">
         <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
@@ -11297,10 +11314,10 @@
       <c r="M74">
         <v>5</v>
       </c>
-      <c r="N74">
-        <v>100</v>
-      </c>
-      <c r="O74">
+      <c r="N74" s="2">
+        <v>100</v>
+      </c>
+      <c r="O74" s="2">
         <f t="shared" si="1"/>
         <v>80.645161290322577</v>
       </c>
@@ -11345,10 +11362,10 @@
       <c r="M75">
         <v>3</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="2">
         <v>50</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -11393,10 +11410,10 @@
       <c r="M76">
         <v>5</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="2">
         <v>72</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="2">
         <f t="shared" si="1"/>
         <v>91.891891891891902</v>
       </c>
@@ -11441,10 +11458,10 @@
       <c r="M77">
         <v>4</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="2">
         <v>63</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="2">
         <f t="shared" si="1"/>
         <v>72.222222222222214</v>
       </c>
@@ -11489,10 +11506,10 @@
       <c r="M78">
         <v>4</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="2">
         <v>93</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="2">
         <f t="shared" si="1"/>
         <v>94.117647058823522</v>
       </c>
@@ -11537,10 +11554,10 @@
       <c r="M79">
         <v>3</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="2">
         <v>80</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="2">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
@@ -11585,10 +11602,10 @@
       <c r="M80">
         <v>4</v>
       </c>
-      <c r="N80">
-        <v>100</v>
-      </c>
-      <c r="O80">
+      <c r="N80" s="2">
+        <v>100</v>
+      </c>
+      <c r="O80" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11633,10 +11650,10 @@
       <c r="M81">
         <v>4</v>
       </c>
-      <c r="N81">
-        <v>100</v>
-      </c>
-      <c r="O81">
+      <c r="N81" s="2">
+        <v>100</v>
+      </c>
+      <c r="O81" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11681,10 +11698,10 @@
       <c r="M82">
         <v>4</v>
       </c>
-      <c r="N82">
-        <v>100</v>
-      </c>
-      <c r="O82">
+      <c r="N82" s="2">
+        <v>100</v>
+      </c>
+      <c r="O82" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11729,10 +11746,10 @@
       <c r="M83">
         <v>4</v>
       </c>
-      <c r="N83">
-        <v>100</v>
-      </c>
-      <c r="O83">
+      <c r="N83" s="2">
+        <v>100</v>
+      </c>
+      <c r="O83" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11777,10 +11794,10 @@
       <c r="M84">
         <v>64</v>
       </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
         <f t="shared" si="1"/>
         <v>93.103448275862064</v>
       </c>
@@ -11825,10 +11842,10 @@
       <c r="M85">
         <v>12</v>
       </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -11873,10 +11890,10 @@
       <c r="M86">
         <v>17</v>
       </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -11921,10 +11938,10 @@
       <c r="M87">
         <v>5</v>
       </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
         <f t="shared" si="1"/>
         <v>82.35294117647058</v>
       </c>
@@ -11969,10 +11986,10 @@
       <c r="M88">
         <v>13</v>
       </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12017,10 +12034,10 @@
       <c r="M89">
         <v>15</v>
       </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12065,10 +12082,10 @@
       <c r="M90">
         <v>10</v>
       </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12113,10 +12130,10 @@
       <c r="M91">
         <v>10</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="2">
         <v>50</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="2">
         <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
@@ -12161,10 +12178,10 @@
       <c r="M92">
         <v>9</v>
       </c>
-      <c r="N92">
-        <v>100</v>
-      </c>
-      <c r="O92">
+      <c r="N92" s="2">
+        <v>100</v>
+      </c>
+      <c r="O92" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12209,10 +12226,10 @@
       <c r="M93">
         <v>9</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="2">
         <v>89</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12257,10 +12274,10 @@
       <c r="M94">
         <v>11</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="2">
         <v>58</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="2">
         <f t="shared" si="1"/>
         <v>81.481481481481481</v>
       </c>
@@ -12305,10 +12322,10 @@
       <c r="M95">
         <v>21</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="2">
         <v>94</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="2">
         <f t="shared" si="1"/>
         <v>94.565217391304344</v>
       </c>
@@ -12353,10 +12370,10 @@
       <c r="M96">
         <v>12</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="2">
         <v>96</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12401,10 +12418,10 @@
       <c r="M97">
         <v>11</v>
       </c>
-      <c r="N97">
-        <v>100</v>
-      </c>
-      <c r="O97">
+      <c r="N97" s="2">
+        <v>100</v>
+      </c>
+      <c r="O97" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12449,10 +12466,10 @@
       <c r="M98">
         <v>9</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="2">
         <v>67</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12497,10 +12514,10 @@
       <c r="M99">
         <v>7</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="2">
         <v>40</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -12545,10 +12562,10 @@
       <c r="M100">
         <v>20</v>
       </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
         <f t="shared" si="1"/>
         <v>83.65384615384616</v>
       </c>
@@ -12593,10 +12610,10 @@
       <c r="M101">
         <v>39</v>
       </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-      <c r="O101">
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
         <f t="shared" si="1"/>
         <v>98.05825242718447</v>
       </c>
@@ -12641,10 +12658,10 @@
       <c r="M102">
         <v>14</v>
       </c>
-      <c r="N102">
-        <v>0</v>
-      </c>
-      <c r="O102">
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
         <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
@@ -12689,10 +12706,10 @@
       <c r="M103">
         <v>23</v>
       </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
         <f t="shared" si="1"/>
         <v>91.620111731843579</v>
       </c>
@@ -12737,10 +12754,10 @@
       <c r="M104">
         <v>4</v>
       </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -12785,10 +12802,10 @@
       <c r="M105">
         <v>16</v>
       </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="O105" s="2">
         <f t="shared" si="1"/>
         <v>91.666666666666657</v>
       </c>
@@ -12833,10 +12850,10 @@
       <c r="M106">
         <v>28</v>
       </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
         <f t="shared" si="1"/>
         <v>63.291139240506332</v>
       </c>
@@ -12881,10 +12898,10 @@
       <c r="M107">
         <v>7</v>
       </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
         <f t="shared" si="1"/>
         <v>90.476190476190482</v>
       </c>
@@ -12929,10 +12946,10 @@
       <c r="M108">
         <v>16</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="2">
         <v>80</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -12977,10 +12994,10 @@
       <c r="M109">
         <v>8</v>
       </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
         <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
@@ -13025,10 +13042,10 @@
       <c r="M110">
         <v>21</v>
       </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
         <f t="shared" si="1"/>
         <v>97.727272727272734</v>
       </c>
@@ -13073,10 +13090,10 @@
       <c r="M111">
         <v>9</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="2">
         <v>13</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13121,10 +13138,10 @@
       <c r="M112">
         <v>9</v>
       </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13169,10 +13186,10 @@
       <c r="M113">
         <v>16</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="2">
         <v>20</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13217,10 +13234,10 @@
       <c r="M114">
         <v>10</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="2">
         <v>75</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13265,10 +13282,10 @@
       <c r="M115">
         <v>15</v>
       </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13313,10 +13330,10 @@
       <c r="M116">
         <v>20</v>
       </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13361,10 +13378,10 @@
       <c r="M117">
         <v>5</v>
       </c>
-      <c r="N117">
-        <v>100</v>
-      </c>
-      <c r="O117">
+      <c r="N117" s="2">
+        <v>100</v>
+      </c>
+      <c r="O117" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13409,10 +13426,10 @@
       <c r="M118">
         <v>25</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="2">
         <v>93</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="2">
         <f t="shared" si="1"/>
         <v>94.444444444444443</v>
       </c>
@@ -13457,10 +13474,10 @@
       <c r="M119">
         <v>24</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="2">
         <v>93</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="2">
         <f t="shared" si="1"/>
         <v>97.468354430379748</v>
       </c>
@@ -13505,10 +13522,10 @@
       <c r="M120">
         <v>8</v>
       </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-      <c r="O120">
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -13553,10 +13570,10 @@
       <c r="M121">
         <v>11</v>
       </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
@@ -13601,10 +13618,10 @@
       <c r="M122">
         <v>9</v>
       </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13649,10 +13666,10 @@
       <c r="M123">
         <v>11</v>
       </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -13697,10 +13714,10 @@
       <c r="M124">
         <v>4</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="2">
         <v>40</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="2">
         <f t="shared" si="1"/>
         <v>47.619047619047613</v>
       </c>
@@ -13745,10 +13762,10 @@
       <c r="M125">
         <v>12</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="2">
         <v>61</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="2">
         <f t="shared" si="1"/>
         <v>90.740740740740748</v>
       </c>
@@ -13793,10 +13810,10 @@
       <c r="M126">
         <v>3</v>
       </c>
-      <c r="N126">
-        <v>100</v>
-      </c>
-      <c r="O126">
+      <c r="N126" s="2">
+        <v>100</v>
+      </c>
+      <c r="O126" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13841,10 +13858,10 @@
       <c r="M127">
         <v>6</v>
       </c>
-      <c r="N127">
-        <v>100</v>
-      </c>
-      <c r="O127">
+      <c r="N127" s="2">
+        <v>100</v>
+      </c>
+      <c r="O127" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13889,10 +13906,10 @@
       <c r="M128">
         <v>8</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="2">
         <v>88</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="2">
         <f t="shared" si="1"/>
         <v>93.103448275862064</v>
       </c>
@@ -13937,10 +13954,10 @@
       <c r="M129">
         <v>4</v>
       </c>
-      <c r="N129">
-        <v>100</v>
-      </c>
-      <c r="O129">
+      <c r="N129" s="2">
+        <v>100</v>
+      </c>
+      <c r="O129" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -13985,10 +14002,10 @@
       <c r="M130">
         <v>10</v>
       </c>
-      <c r="N130">
-        <v>100</v>
-      </c>
-      <c r="O130">
+      <c r="N130" s="2">
+        <v>100</v>
+      </c>
+      <c r="O130" s="2">
         <f t="shared" si="1"/>
         <v>96.15384615384616</v>
       </c>
@@ -14033,10 +14050,10 @@
       <c r="M131">
         <v>6</v>
       </c>
-      <c r="N131">
-        <v>100</v>
-      </c>
-      <c r="O131">
+      <c r="N131" s="2">
+        <v>100</v>
+      </c>
+      <c r="O131" s="2">
         <f t="shared" ref="O131:O179" si="2">I131/(H131+I131)*100</f>
         <v>100</v>
       </c>
@@ -14081,10 +14098,10 @@
       <c r="M132">
         <v>5</v>
       </c>
-      <c r="N132">
-        <v>100</v>
-      </c>
-      <c r="O132">
+      <c r="N132" s="2">
+        <v>100</v>
+      </c>
+      <c r="O132" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14129,10 +14146,10 @@
       <c r="M133">
         <v>8</v>
       </c>
-      <c r="N133">
-        <v>100</v>
-      </c>
-      <c r="O133">
+      <c r="N133" s="2">
+        <v>100</v>
+      </c>
+      <c r="O133" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14177,10 +14194,10 @@
       <c r="M134">
         <v>5</v>
       </c>
-      <c r="N134">
-        <v>100</v>
-      </c>
-      <c r="O134">
+      <c r="N134" s="2">
+        <v>100</v>
+      </c>
+      <c r="O134" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14225,10 +14242,10 @@
       <c r="M135">
         <v>5</v>
       </c>
-      <c r="N135">
-        <v>100</v>
-      </c>
-      <c r="O135">
+      <c r="N135" s="2">
+        <v>100</v>
+      </c>
+      <c r="O135" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14273,10 +14290,10 @@
       <c r="M136">
         <v>8</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="2">
         <v>86</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="2">
         <f t="shared" si="2"/>
         <v>92.10526315789474</v>
       </c>
@@ -14321,10 +14338,10 @@
       <c r="M137">
         <v>11</v>
       </c>
-      <c r="N137">
-        <v>100</v>
-      </c>
-      <c r="O137">
+      <c r="N137" s="2">
+        <v>100</v>
+      </c>
+      <c r="O137" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14369,10 +14386,10 @@
       <c r="M138">
         <v>3</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="2">
         <v>50</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="2">
         <f t="shared" si="2"/>
         <v>83.333333333333343</v>
       </c>
@@ -14417,10 +14434,10 @@
       <c r="M139">
         <v>12</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="2">
         <v>88</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="2">
         <f t="shared" si="2"/>
         <v>76.31578947368422</v>
       </c>
@@ -14465,10 +14482,10 @@
       <c r="M140">
         <v>6</v>
       </c>
-      <c r="N140">
-        <v>100</v>
-      </c>
-      <c r="O140">
+      <c r="N140" s="2">
+        <v>100</v>
+      </c>
+      <c r="O140" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14513,10 +14530,10 @@
       <c r="M141">
         <v>20</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="2">
         <v>84</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="2">
         <f t="shared" si="2"/>
         <v>92.156862745098039</v>
       </c>
@@ -14561,10 +14578,10 @@
       <c r="M142">
         <v>4</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="2">
         <v>90</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14609,10 +14626,10 @@
       <c r="M143">
         <v>6</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="2">
         <v>89</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="2">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
@@ -14657,10 +14674,10 @@
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14705,10 +14722,10 @@
       <c r="M145">
         <v>3</v>
       </c>
-      <c r="N145">
-        <v>100</v>
-      </c>
-      <c r="O145">
+      <c r="N145" s="2">
+        <v>100</v>
+      </c>
+      <c r="O145" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14753,10 +14770,10 @@
       <c r="M146">
         <v>9</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="2">
         <v>92</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="2">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
@@ -14801,10 +14818,10 @@
       <c r="M147">
         <v>10</v>
       </c>
-      <c r="N147">
+      <c r="N147" s="2">
         <v>94</v>
       </c>
-      <c r="O147">
+      <c r="O147" s="2">
         <f t="shared" si="2"/>
         <v>88.461538461538453</v>
       </c>
@@ -14849,10 +14866,10 @@
       <c r="M148">
         <v>7</v>
       </c>
-      <c r="N148">
-        <v>100</v>
-      </c>
-      <c r="O148">
+      <c r="N148" s="2">
+        <v>100</v>
+      </c>
+      <c r="O148" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14897,10 +14914,10 @@
       <c r="M149">
         <v>20</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="2">
         <v>79</v>
       </c>
-      <c r="O149">
+      <c r="O149" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14945,10 +14962,10 @@
       <c r="M150">
         <v>2</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="2">
         <v>50</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -14993,10 +15010,10 @@
       <c r="M151">
         <v>3</v>
       </c>
-      <c r="N151">
+      <c r="N151" s="2">
         <v>83</v>
       </c>
-      <c r="O151">
+      <c r="O151" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15041,10 +15058,10 @@
       <c r="M152">
         <v>4</v>
       </c>
-      <c r="N152">
+      <c r="N152" s="2">
         <v>89</v>
       </c>
-      <c r="O152">
+      <c r="O152" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15089,10 +15106,10 @@
       <c r="M153">
         <v>9</v>
       </c>
-      <c r="N153">
+      <c r="N153" s="2">
         <v>73</v>
       </c>
-      <c r="O153">
+      <c r="O153" s="2">
         <f t="shared" si="2"/>
         <v>78.571428571428569</v>
       </c>
@@ -15137,10 +15154,10 @@
       <c r="M154">
         <v>16</v>
       </c>
-      <c r="N154">
+      <c r="N154" s="2">
         <v>74</v>
       </c>
-      <c r="O154">
+      <c r="O154" s="2">
         <f t="shared" si="2"/>
         <v>79.629629629629633</v>
       </c>
@@ -15185,10 +15202,10 @@
       <c r="M155">
         <v>34</v>
       </c>
-      <c r="N155">
-        <v>100</v>
-      </c>
-      <c r="O155">
+      <c r="N155" s="2">
+        <v>100</v>
+      </c>
+      <c r="O155" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15233,10 +15250,10 @@
       <c r="M156">
         <v>70</v>
       </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-      <c r="O156">
+      <c r="N156" s="2">
+        <v>0</v>
+      </c>
+      <c r="O156" s="2">
         <f t="shared" si="2"/>
         <v>94.179894179894177</v>
       </c>
@@ -15281,10 +15298,10 @@
       <c r="M157">
         <v>16</v>
       </c>
-      <c r="N157">
-        <v>100</v>
-      </c>
-      <c r="O157">
+      <c r="N157" s="2">
+        <v>100</v>
+      </c>
+      <c r="O157" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15329,10 +15346,10 @@
       <c r="M158">
         <v>3</v>
       </c>
-      <c r="N158">
+      <c r="N158" s="2">
         <v>53</v>
       </c>
-      <c r="O158">
+      <c r="O158" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -15377,10 +15394,10 @@
       <c r="M159">
         <v>2</v>
       </c>
-      <c r="N159">
+      <c r="N159" s="2">
         <v>86</v>
       </c>
-      <c r="O159">
+      <c r="O159" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -15425,10 +15442,10 @@
       <c r="M160">
         <v>73</v>
       </c>
-      <c r="N160">
+      <c r="N160" s="2">
         <v>91</v>
       </c>
-      <c r="O160">
+      <c r="O160" s="2">
         <f t="shared" si="2"/>
         <v>98.076923076923066</v>
       </c>
@@ -15473,10 +15490,10 @@
       <c r="M161">
         <v>1</v>
       </c>
-      <c r="N161">
-        <v>100</v>
-      </c>
-      <c r="O161">
+      <c r="N161" s="2">
+        <v>100</v>
+      </c>
+      <c r="O161" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15521,10 +15538,10 @@
       <c r="M162">
         <v>40</v>
       </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
+      <c r="N162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O162" s="2">
         <f t="shared" si="2"/>
         <v>96.581196581196579</v>
       </c>
@@ -15569,10 +15586,10 @@
       <c r="M163">
         <v>6</v>
       </c>
-      <c r="N163">
-        <v>100</v>
-      </c>
-      <c r="O163">
+      <c r="N163" s="2">
+        <v>100</v>
+      </c>
+      <c r="O163" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15617,10 +15634,10 @@
       <c r="M164">
         <v>78</v>
       </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
+      <c r="N164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
         <f t="shared" si="2"/>
         <v>92.549019607843135</v>
       </c>
@@ -15665,10 +15682,10 @@
       <c r="M165">
         <v>19</v>
       </c>
-      <c r="N165">
+      <c r="N165" s="2">
         <v>85</v>
       </c>
-      <c r="O165">
+      <c r="O165" s="2">
         <f t="shared" si="2"/>
         <v>91.83673469387756</v>
       </c>
@@ -15713,10 +15730,10 @@
       <c r="M166">
         <v>6</v>
       </c>
-      <c r="N166">
-        <v>100</v>
-      </c>
-      <c r="O166">
+      <c r="N166" s="2">
+        <v>100</v>
+      </c>
+      <c r="O166" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15761,10 +15778,10 @@
       <c r="M167">
         <v>5</v>
       </c>
-      <c r="N167">
-        <v>100</v>
-      </c>
-      <c r="O167">
+      <c r="N167" s="2">
+        <v>100</v>
+      </c>
+      <c r="O167" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15809,10 +15826,10 @@
       <c r="M168">
         <v>23</v>
       </c>
-      <c r="N168">
-        <v>100</v>
-      </c>
-      <c r="O168">
+      <c r="N168" s="2">
+        <v>100</v>
+      </c>
+      <c r="O168" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15857,10 +15874,10 @@
       <c r="M169">
         <v>3</v>
       </c>
-      <c r="N169">
-        <v>100</v>
-      </c>
-      <c r="O169">
+      <c r="N169" s="2">
+        <v>100</v>
+      </c>
+      <c r="O169" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15905,10 +15922,10 @@
       <c r="M170">
         <v>2</v>
       </c>
-      <c r="N170">
-        <v>100</v>
-      </c>
-      <c r="O170">
+      <c r="N170" s="2">
+        <v>100</v>
+      </c>
+      <c r="O170" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -15953,10 +15970,10 @@
       <c r="M171">
         <v>9</v>
       </c>
-      <c r="N171">
+      <c r="N171" s="2">
         <v>80</v>
       </c>
-      <c r="O171">
+      <c r="O171" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -16001,10 +16018,10 @@
       <c r="M172">
         <v>4</v>
       </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172">
+      <c r="N172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -16049,10 +16066,10 @@
       <c r="M173">
         <v>10</v>
       </c>
-      <c r="N173">
+      <c r="N173" s="2">
         <v>25</v>
       </c>
-      <c r="O173">
+      <c r="O173" s="2">
         <f t="shared" si="2"/>
         <v>84.615384615384613</v>
       </c>
@@ -16097,10 +16114,10 @@
       <c r="M174">
         <v>10</v>
       </c>
-      <c r="N174">
+      <c r="N174" s="2">
         <v>21</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="2">
         <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
@@ -16145,10 +16162,10 @@
       <c r="M175">
         <v>17</v>
       </c>
-      <c r="N175">
+      <c r="N175" s="2">
         <v>20</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -16193,10 +16210,10 @@
       <c r="M176">
         <v>10</v>
       </c>
-      <c r="N176">
+      <c r="N176" s="2">
         <v>9</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="2">
         <f t="shared" si="2"/>
         <v>90.909090909090907</v>
       </c>
@@ -16241,10 +16258,10 @@
       <c r="M177">
         <v>9</v>
       </c>
-      <c r="N177">
+      <c r="N177" s="2">
         <v>93</v>
       </c>
-      <c r="O177">
+      <c r="O177" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -16289,10 +16306,10 @@
       <c r="M178">
         <v>21</v>
       </c>
-      <c r="N178">
+      <c r="N178" s="2">
         <v>97</v>
       </c>
-      <c r="O178">
+      <c r="O178" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -16337,16 +16354,17 @@
       <c r="M179">
         <v>15</v>
       </c>
-      <c r="N179">
+      <c r="N179" s="2">
         <v>63</v>
       </c>
-      <c r="O179">
+      <c r="O179" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16354,7 +16372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
